--- a/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="19890" windowHeight="7710" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="消息模板" r:id="rId5" sheetId="2"/>
-    <sheet name="发送配置" r:id="rId6" sheetId="3"/>
+    <sheet name="消息模板" sheetId="2" r:id="rId2"/>
+    <sheet name="发送配置" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -53,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -66,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -85,7 +77,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -104,7 +95,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -123,7 +113,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -155,7 +144,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -174,7 +162,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -193,7 +180,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -215,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -236,7 +221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -257,7 +241,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -278,7 +261,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -299,7 +281,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -311,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -330,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -342,7 +321,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -361,7 +339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -380,7 +357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -399,7 +375,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -418,7 +393,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -466,7 +440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -485,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -504,7 +476,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -523,7 +494,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -535,7 +505,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -554,7 +523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -573,7 +541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -593,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -612,7 +578,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -632,7 +597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -651,7 +615,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -663,7 +626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -682,7 +644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -701,7 +662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -725,7 +685,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -744,7 +703,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -763,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -782,7 +739,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -801,7 +757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -813,7 +768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -832,7 +786,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -843,7 +796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -864,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -875,7 +826,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -894,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -913,7 +862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -937,7 +885,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -956,7 +903,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -976,7 +922,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -996,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1016,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1037,7 +980,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1057,7 +999,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1092,7 +1033,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1113,7 +1053,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1125,7 +1064,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1144,7 +1082,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1165,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1184,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1197,7 +1132,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1216,7 +1150,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1235,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1254,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1269,7 +1200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1288,7 +1218,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1307,7 +1236,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1326,7 +1254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1345,7 +1272,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1361,7 +1287,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1371,7 +1296,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1390,7 +1314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1406,7 +1329,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1416,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1435,7 +1356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1450,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,7 +1388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1488,7 +1406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1508,7 +1425,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1532,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1551,7 +1466,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1570,7 +1484,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1590,7 +1503,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1611,7 +1523,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1622,7 +1533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1632,7 +1542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1644,7 +1553,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1663,7 +1571,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1682,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1701,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1721,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1740,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1759,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1779,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1798,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1817,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1836,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1856,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1868,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1879,7 +1775,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1889,7 +1784,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1901,7 +1795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1920,7 +1813,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1932,7 +1824,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1951,7 +1842,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1971,7 +1861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2059,38 +1948,37 @@
     <t>您有一个流程申请人已进行催办【${description}】</t>
   </si>
   <si>
+    <t>&lt;p&gt;您好:&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个流程申请人已进行催办，&lt;a href="#/workbench?id=${tenantId}&amp;type=organization"&gt;查看&lt;/a&gt;。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; &amp;nbsp; 申请人：${applier} 事项名称：${description}-${businessKey}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-9</t>
+  </si>
+  <si>
+    <t>HWKF.FLOW_URGE_AUTO</t>
+  </si>
+  <si>
+    <t>工作流-超时催办</t>
+  </si>
+  <si>
+    <t>您有一个流程任务已进行超时催办【${description}】</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;p&gt;您好:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个流程申请人已进行催办，&lt;a href="/hwkf/task/detail/${taskId}"&gt;查看&lt;/a&gt;。&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp; 申请人：${applier} 事项名称：${description}-${businessKey}&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-9</t>
-  </si>
-  <si>
-    <t>HWKF.FLOW_URGE_AUTO</t>
-  </si>
-  <si>
-    <t>工作流-超时催办</t>
-  </si>
-  <si>
-    <t>您有一个流程任务已进行超时催办【${description}】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;您好:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个流程任务已进行超时催办，&lt;a href="/hwkf/task/detail/${taskId}"&gt;查看&lt;/a&gt;。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个流程任务已进行超时催办，&lt;a href="#/workbench?id=${tenantId}&amp;type=organization"&gt;查看&lt;/a&gt;。&lt;/p&gt;
 &lt;p&gt;&amp;nbsp; &amp;nbsp; 申请人：${applier} 事项名称：${description}-${businessKey}&lt;/p&gt;
 </t>
   </si>
@@ -2156,11 +2044,14 @@
     <t>hmsg_message_template-13</t>
   </si>
   <si>
-    <t>You have a new to-do list【${description}】</t>
+    <t>待办工作流</t>
+  </si>
+  <si>
+    <t>您有一个新的待办需处理【${description}】</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;您好:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个新的待办事项需要&lt;a href="/hwkf/task/detail/${taskId}"&gt;处理&lt;/a&gt;。&lt;/p&gt;
+&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个新的待办事项需要&lt;a href="#/workbench?id=${tenantId}&amp;type=organization"&gt;处理&lt;/a&gt;。&lt;/p&gt;
 &lt;p&gt;&amp;nbsp; &amp;nbsp; 待办名称：${description}&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 </t>
@@ -2312,12 +2203,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="60">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2353,38 +2279,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2405,245 +2454,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2674,8 +2523,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2776,13 +2811,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2791,32 +3075,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2826,76 +3122,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2968,9 +3257,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3228,285 +3514,295 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3516,13 +3812,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="46">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="47">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="48">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3546,20 +3842,20 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s" s="49">
+      <c r="N7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" t="s" s="50">
+      <c r="P7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="276" spans="5:17">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -3572,7 +3868,7 @@
       <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>71</v>
       </c>
       <c r="N8" t="s">
@@ -3588,7 +3884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="293.25" spans="5:17">
       <c r="E9" t="s">
         <v>76</v>
       </c>
@@ -3601,7 +3897,7 @@
       <c r="H9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="N9" t="s">
@@ -3617,7 +3913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:17">
       <c r="E10" t="s">
         <v>81</v>
       </c>
@@ -3646,7 +3942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:17">
       <c r="E11" t="s">
         <v>86</v>
       </c>
@@ -3675,7 +3971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:17">
       <c r="E12" t="s">
         <v>91</v>
       </c>
@@ -3704,7 +4000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="293.25" spans="5:17">
       <c r="E13" t="s">
         <v>97</v>
       </c>
@@ -3712,13 +4008,13 @@
         <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s">
         <v>99</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="N13" t="s">
         <v>72</v>
@@ -3733,21 +4029,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="5:17">
       <c r="E14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N14" t="s">
         <v>72</v>
@@ -3762,7 +4058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3770,72 +4066,76 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" t="s" s="51">
         <v>106</v>
       </c>
-      <c r="E16" t="s" s="52">
+      <c r="D16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F16" t="s" s="53">
+      <c r="E16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G16" t="s" s="54">
+      <c r="F16" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="G16" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3843,36 +4143,36 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s" s="55">
         <v>115</v>
       </c>
-      <c r="E7" t="s" s="56">
+      <c r="D7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F7" t="s" s="57">
+      <c r="E7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G7" t="s" s="58">
+      <c r="F7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H7" t="s" s="59">
+      <c r="G7" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:11">
       <c r="E8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -3893,9 +4193,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:11">
       <c r="E9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -3907,18 +4207,18 @@
         <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:11">
       <c r="E10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -3939,9 +4239,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:11">
       <c r="E11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -3962,9 +4262,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:11">
       <c r="E12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -3976,7 +4276,7 @@
         <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
         <v>93</v>
@@ -3985,7 +4285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -3993,37 +4293,37 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" t="s" s="60">
         <v>130</v>
       </c>
-      <c r="E14" t="s" s="61">
+      <c r="D14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F14" t="s" s="62">
+      <c r="E14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G14" t="s" s="63">
+      <c r="F14" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" t="s" s="64">
         <v>135</v>
       </c>
+      <c r="I14" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -4031,37 +4331,37 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
         <v>139</v>
       </c>
-      <c r="D16" t="s" s="65">
-        <v>130</v>
-      </c>
-      <c r="E16" t="s" s="66">
-        <v>131</v>
-      </c>
-      <c r="F16" t="s" s="67">
-        <v>132</v>
-      </c>
-      <c r="G16" t="s" s="68">
-        <v>133</v>
-      </c>
-      <c r="H16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" t="s" s="69">
-        <v>135</v>
-      </c>
-      <c r="J16" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" t="s">
-        <v>137</v>
-      </c>
-      <c r="L16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -4069,45 +4369,46 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" t="s" s="70">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s" s="71">
+        <v>141</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F18" t="s" s="72">
+      <c r="E18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" t="s" s="73">
+      <c r="F18" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="G18" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12">
       <c r="E19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19">
+        <v>142</v>
+      </c>
+      <c r="F19" t="str">
         <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -4116,15 +4417,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:12">
       <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="str">
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
+      </c>
+      <c r="G20" t="s">
         <v>143</v>
-      </c>
-      <c r="F20">
-        <f>发送配置!$E$11</f>
-      </c>
-      <c r="G20" t="s">
-        <v>142</v>
       </c>
       <c r="H20" t="s">
         <v>87</v>
@@ -4133,15 +4435,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:12">
       <c r="E21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21">
+        <v>145</v>
+      </c>
+      <c r="F21" t="str">
         <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s">
         <v>68</v>
@@ -4150,15 +4453,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:12">
       <c r="E22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22">
+        <v>146</v>
+      </c>
+      <c r="F22" t="str">
         <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
         <v>77</v>
@@ -4167,15 +4471,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:12">
       <c r="E23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23">
+        <v>147</v>
+      </c>
+      <c r="F23" t="str">
         <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
         <v>92</v>
@@ -4185,6 +4490,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7710" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="20130" windowHeight="7710" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -2074,6 +2074,236 @@
 </t>
   </si>
   <si>
+    <t>hmsg_message_template-15</t>
+  </si>
+  <si>
+    <t>HWKF.TODO.EMAIL</t>
+  </si>
+  <si>
+    <t>待办工作流邮件</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个新的待办事项需要&lt;a href="${domain}/#/workbench?id=${tenantId}&amp;type=organization"&gt;处理&lt;/a&gt;。&lt;/p&gt;
+  &lt;p&gt;&amp;nbsp; &amp;nbsp; 待办名称：${description}&lt;/p&gt;
+  &lt;/div&gt; 
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
+      font-size: 10px;
+      color: #FFFFFF;
+      text-align: center;
+      display: inline-block;
+      line-height: 34px;
+      width: 100%;
+      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -2146,6 +2376,9 @@
     <t>工作流-待办</t>
   </si>
   <si>
+    <t>hmsg_template_server-13</t>
+  </si>
+  <si>
     <t>发送配置(邮箱)</t>
   </si>
   <si>
@@ -2174,6 +2407,15 @@
   </si>
   <si>
     <t>tenant_id</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-11</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
   </si>
   <si>
     <t>发送配置(短信)</t>
@@ -2206,11 +2448,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2280,15 +2522,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2301,104 +2549,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2414,6 +2564,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2422,6 +2642,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2431,6 +2660,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2457,13 +2693,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2476,12 +2705,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2525,13 +2748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2543,13 +2772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2561,37 +2796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,19 +2826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,19 +2856,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2657,31 +2880,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,19 +2904,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2812,17 +3035,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2838,15 +3066,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2870,18 +3089,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2901,162 +3118,168 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3764,10 +3987,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4029,7 +4252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="5:17">
+    <row r="14" ht="103.5" spans="5:17">
       <c r="E14" t="s">
         <v>101</v>
       </c>
@@ -4042,7 +4265,7 @@
       <c r="H14" t="s">
         <v>104</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>105</v>
       </c>
       <c r="N14" t="s">
@@ -4058,39 +4281,68 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+    <row r="15" ht="409.5" spans="5:17">
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="C17" t="s">
         <v>110</v>
       </c>
-      <c r="H16" t="s">
+      <c r="D17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I16" t="s">
+      <c r="E17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J16" t="s">
+      <c r="F17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K16" t="s">
+      <c r="G17" s="3" t="s">
         <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4102,13 +4354,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="8" max="8" width="18.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -4143,28 +4399,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
@@ -4172,7 +4428,7 @@
     </row>
     <row r="8" spans="5:11">
       <c r="E8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -4195,7 +4451,7 @@
     </row>
     <row r="9" spans="5:11">
       <c r="E9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -4207,10 +4463,10 @@
         <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
         <v>73</v>
@@ -4218,7 +4474,7 @@
     </row>
     <row r="10" spans="5:11">
       <c r="E10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -4241,7 +4497,7 @@
     </row>
     <row r="11" spans="5:11">
       <c r="E11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -4264,7 +4520,7 @@
     </row>
     <row r="12" spans="5:11">
       <c r="E12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -4276,7 +4532,7 @@
         <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
         <v>93</v>
@@ -4285,80 +4541,90 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+    <row r="13" spans="5:11">
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J14" t="s">
+      <c r="E15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K14" t="s">
+      <c r="F15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L14" t="s">
+      <c r="G15" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="H15" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>134</v>
+      <c r="I15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12">
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="str">
+        <f>发送配置!$E$13</f>
+        <v>hmsg_template_server-13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4369,123 +4635,161 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J18" t="s">
+      <c r="E20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K18" t="s">
+      <c r="F20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L18" t="s">
+      <c r="G20" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="5:12">
-      <c r="E19" t="s">
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
         <v>142</v>
       </c>
-      <c r="F19" t="str">
+      <c r="K20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12">
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
-      <c r="G19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" t="s">
         <v>82</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="5:12">
-      <c r="E20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" t="str">
+    <row r="22" spans="5:12">
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
-      <c r="G20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" t="s">
         <v>87</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="5:12">
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" t="str">
+    <row r="23" spans="5:12">
+      <c r="E23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" t="str">
         <f>发送配置!$E$8</f>
         <v>hmsg_template_server-8</v>
       </c>
-      <c r="G21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" t="s">
         <v>68</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="5:12">
-      <c r="E22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" t="str">
+    <row r="24" spans="5:12">
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
-      <c r="G22" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" t="s">
         <v>77</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="5:12">
-      <c r="E23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" t="str">
+    <row r="25" spans="5:12">
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
-      <c r="G23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" t="s">
         <v>92</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L25" t="s">
         <v>74</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7710" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
   <si>
     <r>
       <rPr>
@@ -2221,7 +2221,7 @@
                       &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
                         &lt;div style=""&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个新的待办事项需要&lt;a href="${domain}/#/workbench?id=${tenantId}&amp;type=organization"&gt;处理&lt;/a&gt;。&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个新的待办事项需要&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;type=organization"&gt;处理&lt;/a&gt;。&lt;/p&gt;
   &lt;p&gt;&amp;nbsp; &amp;nbsp; 待办名称：${description}&lt;/p&gt;
   &lt;/div&gt; 
                       &lt;/div&gt;
@@ -2331,6 +2331,18 @@
     <t>tenant_id:en_US</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>tenantId</t>
+  </si>
+  <si>
+    <t>domainName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>发送配置</t>
   </si>
   <si>
@@ -2374,9 +2386,6 @@
   </si>
   <si>
     <t>工作流-待办</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-13</t>
   </si>
   <si>
     <t>发送配置(邮箱)</t>
@@ -2449,8 +2458,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2521,15 +2530,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2550,7 +2560,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2558,22 +2590,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2582,6 +2599,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2599,14 +2623,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2636,14 +2652,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2659,14 +2667,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2748,43 +2757,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2802,60 +2799,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2868,43 +2811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,13 +2841,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3035,26 +3044,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3066,6 +3055,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3103,21 +3107,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3132,16 +3121,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3150,133 +3159,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3987,10 +3996,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3998,6 +4007,7 @@
     <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="17.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4343,6 +4353,60 @@
       </c>
       <c r="K17" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="str">
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="str">
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="str">
+        <f>消息模板!$E$15</f>
+        <v>hmsg_message_template-15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4354,10 +4418,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4399,28 +4463,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
@@ -4428,7 +4492,7 @@
     </row>
     <row r="8" spans="5:11">
       <c r="E8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
@@ -4451,7 +4515,7 @@
     </row>
     <row r="9" spans="5:11">
       <c r="E9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -4463,10 +4527,10 @@
         <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
         <v>73</v>
@@ -4474,7 +4538,7 @@
     </row>
     <row r="10" spans="5:11">
       <c r="E10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
         <v>74</v>
@@ -4497,7 +4561,7 @@
     </row>
     <row r="11" spans="5:11">
       <c r="E11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -4520,7 +4584,7 @@
     </row>
     <row r="12" spans="5:11">
       <c r="E12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -4532,7 +4596,7 @@
         <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
         <v>93</v>
@@ -4541,181 +4605,176 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="5:11">
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="str">
+        <f>发送配置!$E$12</f>
+        <v>hmsg_template_server-12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
         <v>74</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="E20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" t="str">
+        <f>发送配置!$E$10</f>
+        <v>hmsg_template_server-10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" t="s">
         <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12">
-      <c r="D16" s="1"/>
-      <c r="E16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" t="str">
-        <f>发送配置!$E$13</f>
-        <v>hmsg_template_server-13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="5:12">
       <c r="E21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F21" t="str">
-        <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
+        <f>发送配置!$E$11</f>
+        <v>hmsg_template_server-11</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
         <v>74</v>
@@ -4723,17 +4782,17 @@
     </row>
     <row r="22" spans="5:12">
       <c r="E22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F22" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
+        <f>发送配置!$E$8</f>
+        <v>hmsg_template_server-8</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
         <v>74</v>
@@ -4741,17 +4800,17 @@
     </row>
     <row r="23" spans="5:12">
       <c r="E23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F23" t="str">
-        <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
+        <f>发送配置!$E$9</f>
+        <v>hmsg_template_server-9</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="L23" t="s">
         <v>74</v>
@@ -4759,37 +4818,19 @@
     </row>
     <row r="24" spans="5:12">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F24" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="5:12">
-      <c r="E25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
-      <c r="G25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
         <v>92</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L24" t="s">
         <v>74</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9935" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <r>
       <rPr>
@@ -2168,7 +2168,7 @@
   &lt;/style&gt;
   &lt;style type="text/css"&gt;
   &lt;/style&gt;
-&lt;div style=""&gt;
+&lt;/head&gt;&lt;body&gt;&lt;div style=""&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;table
           align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
@@ -2194,91 +2194,96 @@
                 &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
                   &lt;div style="line-height: 1; text-align: left;"&gt;
                     &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
-                        &lt;table&gt;
+                      &lt;div style="margin-top: 60px;color: rgb(0, 0, 0);font-family: Ubuntu, Helvetica, Arial, sans-serif;font-size: 13px;height: 55px;background-color: rgb(255, 255, 255);"&gt;
+                        &lt;table style="width: 100%;"&gt;
                           &lt;tbody&gt;&lt;tr&gt;
-                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                              &lt;table&gt;
+                            &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
+                              &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;/tr&gt;
+                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
-                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
-                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
-                                &lt;p style="font-size: 14px;
-    color: #252528;
-    letter-spacing: 0;
-    display: inline-block;
-    text-align: right;
-    width: 558px;
-    padding-top: 55px;"&gt;&lt;/p&gt;
-                              &lt;/div&gt;
                             &lt;/td&gt;
                           &lt;/tr&gt;
                         &lt;/tbody&gt;&lt;/table&gt;
                       &lt;/div&gt;
-                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
-                        &lt;div style=""&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个新的待办事项需要&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;type=organization"&gt;处理&lt;/a&gt;。&lt;/p&gt;
-  &lt;p&gt;&amp;nbsp; &amp;nbsp; 待办名称：${description}&lt;/p&gt;
-  &lt;/div&gt; 
+                      &lt;div style="border-width: 1px 0px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
+                        &lt;div style="margin: 0px 10px"&gt;
+                         &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;猪齿鱼通知-工作流待办事项&lt;/p&gt;
+                          &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;您好，您有一个新的待办事项需要&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;type=organization" style="text-decoration:none;color: #5365EA" target="_blank"&gt;处理&lt;/a&gt;。&lt;/p&gt;
+            &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;待办名称：${description}&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
-                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                          &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
-                              &lt;td style="padding-left: 29px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td&gt;
-                              &lt;/td&gt;&lt;td&gt;
-                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
+                              &lt;td&gt;
+                                &lt;div style="/* padding-top: 1px; */margin-left: 10px;/* height: 90px; *//* margin-top: 28px; */vertical-align: top;"&gt;
+                                  &lt;p style="
+      font-size: 13px;
+      color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
+      margin-top: 0;
+      border-width: 1px;
+      "&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="
+      font-size: 13px;
+      color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
+      margin-top: 0;
+      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 13px;
+      color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 13px;
+      color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;/tr&gt;
+                            &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;/tr&gt;
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
-                        &lt;p style="opacity: 0.8;
+                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                        &lt;p style="
+      opacity: 0.8;
       font-size: 10px;
-      color: #FFFFFF;
+      color: rgba(15,19,88,0.65);
       text-align: center;
       display: inline-block;
       line-height: 34px;
       width: 100%;
-      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+      margin: 0 auto;
+      "&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
                   &lt;/div&gt;
@@ -2456,10 +2461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2530,9 +2535,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2540,6 +2573,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2553,23 +2594,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2581,8 +2624,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2591,6 +2642,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2612,72 +2679,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2757,7 +2762,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2769,13 +2816,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2787,19 +2852,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2817,19 +2894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2841,103 +2936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3044,6 +3049,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3055,6 +3080,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3075,39 +3118,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3122,170 +3132,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3417,7 +3422,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3486,11 +3491,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3746,11 +3746,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3758,7 +3759,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
@@ -3787,7 +3788,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3801,7 +3802,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
@@ -3842,7 +3843,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
@@ -3899,7 +3900,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -3922,7 +3923,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
@@ -3972,7 +3973,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -3994,15 +3995,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
@@ -4088,7 +4089,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" ht="276" spans="5:17">
+    <row r="8" customHeight="1" spans="5:17">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" ht="293.25" spans="5:17">
+    <row r="9" customHeight="1" spans="5:17">
       <c r="E9" t="s">
         <v>76</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" customHeight="1" spans="5:17">
       <c r="E10" t="s">
         <v>81</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="5:17">
+    <row r="11" customHeight="1" spans="5:17">
       <c r="E11" t="s">
         <v>86</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="5:17">
+    <row r="12" customHeight="1" spans="5:17">
       <c r="E12" t="s">
         <v>91</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" ht="293.25" spans="5:17">
+    <row r="13" customHeight="1" spans="5:17">
       <c r="E13" t="s">
         <v>97</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" ht="103.5" spans="5:17">
+    <row r="14" customHeight="1" spans="5:17">
       <c r="E14" t="s">
         <v>101</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" ht="409.5" spans="5:17">
+    <row r="15" customHeight="1" spans="5:17">
       <c r="E15" t="s">
         <v>106</v>
       </c>
@@ -4410,21 +4411,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="8" max="8" width="18.5555555555556" customWidth="1"/>
@@ -4835,7 +4836,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_message/hzero-message.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9935" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="消息模板" sheetId="2" r:id="rId2"/>
-    <sheet name="发送配置" sheetId="3" r:id="rId3"/>
+    <sheet name="消息模板" r:id="rId5" sheetId="2"/>
+    <sheet name="发送配置" r:id="rId6" sheetId="3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="202">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -47,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -59,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -77,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -95,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -113,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -144,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -162,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -180,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -201,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -221,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -241,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -261,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -281,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -292,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -310,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -321,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -339,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -357,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -375,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -393,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -440,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -458,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -476,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -494,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -505,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -523,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -541,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -560,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -578,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -597,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -615,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -626,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -644,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -662,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -685,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -703,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -721,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -739,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -757,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -768,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -786,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -796,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -816,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -826,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -844,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -862,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -885,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -903,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -922,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -941,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -960,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -980,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -999,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1033,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1053,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1064,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1082,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1102,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1120,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1132,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1150,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1168,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1186,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1200,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1218,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1236,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1254,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1272,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1287,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1296,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1314,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1329,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1338,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1356,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1370,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1388,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1406,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1425,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1448,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1466,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1484,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1503,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1523,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1533,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1542,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1553,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1571,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1589,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1607,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1626,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1644,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1662,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1681,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1699,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1717,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1735,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1754,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1765,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1775,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1784,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1795,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1813,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1824,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1842,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1861,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1885,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-01-28</t>
+    <t>2022-05-19</t>
   </si>
   <si>
     <t>hzero</t>
@@ -1939,33 +2050,166 @@
     <t>hmsg_message_template-8</t>
   </si>
   <si>
+    <t>HWKF.ABNORMAL.NOTICE</t>
+  </si>
+  <si>
+    <t>流程异常通知</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;您好&lt;/p&gt;
+&lt;p&gt;您提交的流程运行异常，请联系管理员处理&lt;/p&gt;
+&lt;p&gt;流程名称：${description}&lt;/p&gt;
+&lt;p&gt;单据名：${businessKey}&lt;/p&gt;
+&lt;p&gt;流程提交时间：${startInstanceDate}&lt;/p&gt;
+&lt;p&gt;异常原因：${exceptionMessage}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-9</t>
+  </si>
+  <si>
+    <t>HWKF.APPROVED_APPLIER</t>
+  </si>
+  <si>
+    <t>工作流-通过后通知申请人</t>
+  </si>
+  <si>
+    <t>【流程审批通过】${description}</t>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &lt;span style="font-family:微软雅黑"&gt;您有一个&lt;strong&gt;&lt;span style="color:#27ae60"&gt;申请审批通过&lt;/span&gt;&lt;/strong&gt;!&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startInstanceDate}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-10</t>
+  </si>
+  <si>
+    <t>HWKF.CARBON_COPY</t>
+  </si>
+  <si>
+    <t>工作流-抄送事项</t>
+  </si>
+  <si>
+    <t>【事项抄送通知】${description}</t>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &lt;span style="font-family:微软雅黑"&gt;您有一个新的抄送事项&lt;strong&gt;&lt;span style="color:#f39c12"&gt;需要处理&lt;/span&gt;&lt;/strong&gt;。&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;抄送来源人：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${actionFromRealName}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;span style="font-family:微软雅黑"&gt;&lt;strong&gt;抄送备注&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt;：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;&lt;span style="font-family:微软雅黑"&gt;${actionFromComment}&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-11</t>
+  </si>
+  <si>
     <t>HWKF.FLOW_URGE</t>
   </si>
   <si>
     <t>工作流催办</t>
   </si>
   <si>
-    <t>您有一个流程申请人已进行催办【${description}】</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;您好:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个流程申请人已进行催办，&lt;a href="#/workbench?id=${tenantId}&amp;type=organization"&gt;查看&lt;/a&gt;。&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp; 申请人：${applier} 事项名称：${description}-${businessKey}&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-9</t>
+    <t>【工作流催办】${description}</t>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 您有流程被&lt;strong&gt;&lt;span style="color:#f39c12"&gt;催办&lt;/span&gt;&lt;/strong&gt;，请及时处理。&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程申请人：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startRealName}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startInstanceDate}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;点击链接跳转至：&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;&lt;a href="http://${domainName}/hwkf/task/detail/${taskId}"&gt;待办详情&lt;/a&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-12</t>
   </si>
   <si>
     <t>HWKF.FLOW_URGE_AUTO</t>
@@ -1974,16 +2218,40 @@
     <t>工作流-超时催办</t>
   </si>
   <si>
-    <t>您有一个流程任务已进行超时催办【${description}】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;您好:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个流程任务已进行超时催办，&lt;a href="#/workbench?id=${tenantId}&amp;type=organization"&gt;查看&lt;/a&gt;。&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp; 申请人：${applier} 事项名称：${description}-${businessKey}&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-10</t>
+    <t>【超时催办通知】${description}</t>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 您有一个流程任务&lt;strong&gt;&lt;span style="color:#c0392b"&gt;已超时&lt;/span&gt;&lt;/strong&gt;。&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程申请人：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startRealName}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startInstanceDate}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-13</t>
   </si>
   <si>
     <t>HWKF.REJECT_APPLIER</t>
@@ -1992,17 +2260,36 @@
     <t>工作流-拒绝后通知申请人</t>
   </si>
   <si>
-    <t>您有一个申请被拒绝【${description}】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;您好:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个申请被拒绝，&lt;a href="/hwkf/participated/participated-detail/${instanceId}"&gt;查看&lt;/a&gt;。&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp; 事项名称：${description}-${businessKey}&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-11</t>
+    <t>【申请流程被拒绝】${description}</t>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="vertical-align:top; width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;span style="font-family:微软雅黑"&gt;&lt;span style="font-size:14px"&gt;您有一个&lt;span style="color:#c0392b"&gt;申请流程被拒绝&lt;/span&gt;。&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="vertical-align:top; width:115px"&gt;&lt;span style="font-family:微软雅黑"&gt;&lt;span style="font-size:14px"&gt;&lt;span style="color:#e74c3c"&gt;&lt;strong&gt;拒绝详情&lt;/strong&gt;&lt;/span&gt;：&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;&lt;span style="color:#c0392b"&gt;${rejectComment}&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-14</t>
   </si>
   <si>
     <t>HWKF.REJECT_APPROVER</t>
@@ -2011,388 +2298,474 @@
     <t>工作流-拒绝后通知审批人</t>
   </si>
   <si>
-    <t>您有一个审批被拒绝【${description}】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;您好:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个审批被拒绝，&lt;a href="/hwkf/participated/participated-detail/${instanceId}"&gt;查看&lt;/a&gt;。&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp; 事项名称：${description}-${businessKey}&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-12</t>
+    <t>【参与流程被拒绝】${description}</t>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; 您有一个&lt;strong&gt;&lt;span style="color:#c0392b"&gt;参与处理的流程被拒绝&lt;/span&gt;。&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="vertical-align:top; width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;span style="color:#c0392b"&gt;&lt;strong&gt;拒绝原因&lt;/strong&gt;：&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;&lt;span style="color:#c0392b"&gt;${rejectComment}&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-15</t>
+  </si>
+  <si>
+    <t>HWKF.TASK_ACTION_BACK</t>
+  </si>
+  <si>
+    <t>工作流-任务撤回消息通知</t>
+  </si>
+  <si>
+    <t>【流程任务撤回】${description}</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 您有一个${actionMeaning}任务&lt;strong&gt;&lt;span style="color:#e74c3c"&gt;被撤回&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:微软雅黑"&gt;。&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;strong&gt;&lt;span style="font-size:14px"&gt;任务名称：&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${taskName}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;操作用户：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${actionBackByPerson}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;span style="font-family:微软雅黑"&gt;&lt;strong&gt;撤回时间&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt;：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${actionBackTime}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-16</t>
+  </si>
+  <si>
+    <t>HWKF.TASK_WITHDRAW</t>
+  </si>
+  <si>
+    <t>工作流流程撤回消息通知</t>
+  </si>
+  <si>
+    <t>【流程审批任务撤回】${description}</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 您有一个审批任务&lt;strong&gt;&lt;span style="color:#e74c3c"&gt;被撤回&lt;/span&gt;&lt;/strong&gt;&lt;span style="font-family:微软雅黑"&gt;。&lt;/span&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;strong&gt;&lt;span style="font-size:14px"&gt;任务名称：&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${taskName}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;操作用户：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${actionBackByPerson}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;span style="font-family:微软雅黑"&gt;&lt;strong&gt;撤回时间&lt;/strong&gt;&lt;/span&gt;&lt;strong&gt;：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${actionBackTime}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-17</t>
   </si>
   <si>
     <t>HWKF.TODO</t>
   </si>
   <si>
+    <t>工作流-待办事项</t>
+  </si>
+  <si>
+    <t>【待办流程】${description}</t>
+  </si>
+  <si>
+    <t>&lt;table border="0" cellpadding="1" cellspacing="4" style="width:500px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;您好：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:120px"&gt;&lt;span style="font-size:14px"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; 您有一个&lt;strong&gt;新的待办事项需要处理&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;事项名称：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${description}-${businessKey}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程申请人：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startRealName}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;&lt;strong&gt;流程发起时间：&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;span style="font-size:14px"&gt;${startInstanceDate}&lt;/span&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="width:115px"&gt;&lt;span style="font-size:14px"&gt;点击链接跳转至：&lt;/span&gt;&lt;/td&gt;
+			&lt;td&gt;&lt;strong&gt;&lt;span style="font-size:14px"&gt;&lt;a href="http://${domainName}/hwkf/task/detail/${taskId}"&gt;待办详情&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2" rowspan="1" style="width:115px"&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-18</t>
+  </si>
+  <si>
+    <t>HWKF_EMAIL_APPROVE</t>
+  </si>
+  <si>
+    <t>Email approval default structure template</t>
+  </si>
+  <si>
+    <t>Mail approval notice</t>
+  </si>
+  <si>
+    <t>&lt;table align="center" cellpadding="0" cellspacing="0" style="background:#ffffff; box-shadow:0px 2px 10px rgba(111, 111, 111, 0.16); opacity:1; width:980px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &lt;strong&gt;&amp;nbsp;&lt;/strong&gt;Details of the matter&lt;strong&gt;/&lt;/strong&gt;Report information&lt;strong&gt;：&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;
+			&lt;table align="center" border="0" cellpadding="0" cellspacing="0" style="width:855px"&gt;
+				&lt;tbody&gt;
+					&lt;tr&gt;
+						&lt;td style="width:107px"&gt;${customHtml}&lt;/td&gt;
+					&lt;/tr&gt;
+				&lt;/tbody&gt;
+			&lt;/table&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;
+			&lt;table align="center" border="0" cellpadding="1" cellspacing="1" style="border-radius:4px; height:42px; opacity:1; width:264px"&gt;
+				&lt;tbody&gt;
+					&lt;tr&gt;
+						&lt;td style="background-color:#ffbc00; text-align:center"&gt;${APPROVED}&lt;/td&gt;
+						&lt;td style="width:28px"&gt;&amp;nbsp;&lt;/td&gt;
+						&lt;td style="background-color:#ffbc00; height:42px; text-align:center; width:118px"&gt;${REJECTED}&lt;/td&gt;
+					&lt;/tr&gt;
+				&lt;/tbody&gt;
+			&lt;/table&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p style="text-align:center"&gt;&lt;img alt="" height="40" src="http://hzeroall.saas.hand-china.com/api/hfle/v1/0/files/redirect-url?bucketName=hims&amp;amp;access_token=c8fbda4c-53b4-497f-b762-89ae2601e214&amp;amp;url=http%3A%2F%2Fhzerodevoss.saas.hand-china.com%2Fhz-public%2Feditor%2F0%2FDEFAULT%2F96cf2e370dd14a8aa87a6477f81781a9%40组 5.png" width="855" /&gt;&amp;amp;t=&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="color:#dddddd"&gt;&lt;span style="font-size:10px"&gt;Note：If the item details/report information is not displayed normally, please contact the administrator&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-19</t>
+  </si>
+  <si>
+    <t>默认邮件审批结构模板</t>
+  </si>
+  <si>
+    <t>&lt;table align="center" cellpadding="0" cellspacing="0" style="background:#ffffff; box-shadow:0px 2px 10px rgba(111, 111, 111, 0.16); opacity:1; width:980px"&gt;
+	&lt;tbody&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p style="text-align:center"&gt;&lt;img alt="" height="224" src="http://hzerodevoss.saas.hand-china.com/hz-public/editor/0/DEFAULT/25836b7390a944dbb3e016d5742d0ff0@组 7.png" width="980" /&gt;&lt;/p&gt;
+			&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &lt;strong&gt;&amp;nbsp;事项详情/报表信息：&lt;/strong&gt;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;
+			&lt;table align="center" border="0" cellpadding="0" cellspacing="0" style="width:855px"&gt;
+				&lt;tbody&gt;
+					&lt;tr&gt;
+						&lt;td style="width:107px"&gt;${customHtml}&lt;/td&gt;
+					&lt;/tr&gt;
+				&lt;/tbody&gt;
+			&lt;/table&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;
+			&lt;table align="center" border="0" cellpadding="1" cellspacing="1" style="border-radius:4px; height:42px; opacity:1; width:264px"&gt;
+				&lt;tbody&gt;
+					&lt;tr&gt;
+						&lt;td style="background-color:#ffbc00; text-align:center"&gt;${APPROVED}&lt;/td&gt;
+						&lt;td style="width:28px"&gt;&amp;nbsp;&lt;/td&gt;
+						&lt;td style="background-color:#ffbc00; height:42px; text-align:center; width:118px"&gt;${REJECTED}&lt;/td&gt;
+					&lt;/tr&gt;
+				&lt;/tbody&gt;
+			&lt;/table&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td style="text-align:center"&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;
+			&lt;p style="text-align:center"&gt;&lt;img alt="" height="40" src="http://hzerodevoss.saas.hand-china.com/hz-public/editor/0/DEFAULT/96cf2e370dd14a8aa87a6477f81781a9@组 5.png" width="855" /&gt;&lt;/p&gt;
+			&lt;p style="text-align:center"&gt;&lt;span style="color:#dddddd"&gt;&lt;span style="font-size:10px"&gt;注：若事项详情/报表信息未能正常展示，请联系管理员&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+			&lt;td&gt;&amp;nbsp;&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>businessKey</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>exceptionMessage</t>
+  </si>
+  <si>
+    <t>startInstanceDate</t>
+  </si>
+  <si>
+    <t>applier</t>
+  </si>
+  <si>
+    <t>taskId</t>
+  </si>
+  <si>
+    <t>actionBackByPerson</t>
+  </si>
+  <si>
+    <t>actionBackTime</t>
+  </si>
+  <si>
+    <t>taskName</t>
+  </si>
+  <si>
+    <t>dateNumber</t>
+  </si>
+  <si>
+    <t>发送配置</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>*temp_server_id</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-8</t>
+  </si>
+  <si>
+    <t>工作流-异常通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-9</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-10</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-11</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-12</t>
+  </si>
+  <si>
+    <t>超时催办消息</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-13</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-14</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-15</t>
+  </si>
+  <si>
+    <t>工作流-任务撤回通知</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-16</t>
+  </si>
+  <si>
+    <t>工作流-流程撤回通知审批人</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-17</t>
+  </si>
+  <si>
+    <t>工作流-待办</t>
+  </si>
+  <si>
     <t>Workflow-To Do</t>
   </si>
   <si>
-    <t>You have a pending item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Hello:&lt;/p&gt;
-&lt;p&gt;You have a new to-do item to deal with.&lt;/p&gt;
-&lt;p&gt;To-do name: ${description}&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-13</t>
-  </si>
-  <si>
-    <t>待办工作流</t>
-  </si>
-  <si>
-    <t>您有一个新的待办需处理【${description}】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;您好:&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp;&amp;nbsp;您有一个新的待办事项需要&lt;a href="#/workbench?id=${tenantId}&amp;type=organization"&gt;处理&lt;/a&gt;。&lt;/p&gt;
-&lt;p&gt;&amp;nbsp; &amp;nbsp; 待办名称：${description}&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-14</t>
-  </si>
-  <si>
-    <t>HWKFT.URGE_ONE_DAY</t>
-  </si>
-  <si>
-    <t>一天催办消息</t>
-  </si>
-  <si>
-    <t>任务催办通知</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;流程${description}&lt;/p&gt;
-&lt;p&gt;任务已超时1天&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-15</t>
-  </si>
-  <si>
-    <t>HWKF.TODO.EMAIL</t>
-  </si>
-  <si>
-    <t>待办工作流邮件</t>
-  </si>
-  <si>
-    <t>&lt;title&gt; &lt;/title&gt;
-  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
-  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
-  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-  &lt;style type="text/css"&gt;
-    #outlook a {
-      padding: 0;
-    }
-    .ReadMsgBody {
-      width: 100%;
-    }
-    .ExternalClass {
-      width: 100%;
-    }
-    .ExternalClass * {
-      line-height: 100%;
-    }
-    body {
-      margin: 0;
-      padding: 0;
-      -webkit-text-size-adjust: 100%;
-      -ms-text-size-adjust: 100%;
-    }
-    table,
-    td {
-      border-collapse: collapse;
-      mso-table-lspace: 0pt;
-      mso-table-rspace: 0pt;
-    }
-    img {
-      border: 0;
-      height: auto;
-      line-height: 100%;
-      outline: none;
-      text-decoration: none;
-      -ms-interpolation-mode: bicubic;
-    }
-    p {
-      display: block;
-      margin: 13px 0;
-    }
-  &lt;/style&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (max-width:480px) {
-      @-ms-viewport {
-        width: 320px;
-      }
-      @viewport {
-        width: 320px;
-      }
-    }
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;!--[if mso]&gt;
-  &lt;xml&gt;
-    &lt;o:OfficeDocumentSettings&gt;
-      &lt;o:AllowPNG/&gt;
-      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
-    &lt;/o:OfficeDocumentSettings&gt;
-  &lt;/xml&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if lte mso 11]&gt;
-  &lt;style type="text/css"&gt;
-    .outlook-group-fix { width:100% !important; }
-  &lt;/style&gt;
-  &lt;![endif]--&gt;
-  &lt;!--[if !mso]&gt;&lt;!--&gt;
-  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
-  &lt;style type="text/css"&gt;
-    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
-  &lt;/style&gt;
-  &lt;!--&lt;![endif]--&gt;
-  &lt;style type="text/css"&gt;
-    @media only screen and (min-width:480px) {
-      .mj-column-per-100 {
-        width: 100% !important;
-        max-width: 100%;
-      }
-    }
-  &lt;/style&gt;
-  &lt;style type="text/css"&gt;
-  &lt;/style&gt;
-&lt;/head&gt;&lt;body&gt;&lt;div style=""&gt;
-  &lt;!--[if mso | IE]&gt;
-  &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
-  &gt;
-    &lt;tr&gt;
-      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
-  &lt;![endif]--&gt;
-  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
-    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
-      &lt;tbody&gt;
-      &lt;tr&gt;
-        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
-          &lt;!--[if mso | IE]&gt;
-          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
-            &lt;tr&gt;
-              &lt;td
-                      class="" style="vertical-align:top;width:782px;"
-              &gt;
-          &lt;![endif]--&gt;
-          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
-            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
-              &lt;tbody&gt;&lt;tr&gt;
-                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
-                  &lt;div style="line-height: 1; text-align: left;"&gt;
-                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
-                      &lt;div style="margin-top: 60px;color: rgb(0, 0, 0);font-family: Ubuntu, Helvetica, Arial, sans-serif;font-size: 13px;height: 55px;background-color: rgb(255, 255, 255);"&gt;
-                        &lt;table style="width: 100%;"&gt;
-                          &lt;tbody&gt;&lt;tr&gt;
-                            &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
-                              &lt;table style="width: 100%;"&gt;
-                                &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
-                              &lt;/tbody&gt;&lt;/table&gt;
-                            &lt;/td&gt;&lt;td&gt;
-                            &lt;/td&gt;
-                          &lt;/tr&gt;
-                        &lt;/tbody&gt;&lt;/table&gt;
-                      &lt;/div&gt;
-                      &lt;div style="border-width: 1px 0px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
-                        &lt;div style="margin: 0px 10px"&gt;
-                         &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 16px;margin-top: 0px;padding-top: 20px;padding-bottom: 14px;margin-bottom: 0px;"&gt;猪齿鱼通知-工作流待办事项&lt;/p&gt;
-                          &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;您好，您有一个新的待办事项需要&lt;a href="${domainName}/#/workbench?id=${tenantId}&amp;type=organization" style="text-decoration:none;color: #5365EA" target="_blank"&gt;处理&lt;/a&gt;。&lt;/p&gt;
-            &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px;"&gt;待办名称：${description}&lt;/p&gt;
-                        &lt;/div&gt;
-                        &lt;br&gt;
-                      &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
-                        &lt;div style="text-align: justify;"&gt;
-                          &lt;table style="height: 148px;width: 100%;"&gt;
-                            &lt;tbody&gt;&lt;tr&gt;
-                              &lt;td&gt;
-                                &lt;div style="/* padding-top: 1px; */margin-left: 10px;/* height: 90px; *//* margin-top: 28px; */vertical-align: top;"&gt;
-                                  &lt;p style="
-      font-size: 13px;
-      color: rgba(15,19,88,0.80);
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;
-      border-width: 1px;
-      "&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                  &lt;p style="
-      font-size: 13px;
-      color: rgba(15,19,88,0.80);
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 13px;
-      color: rgba(15,19,88,0.80);
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 13px;
-      color: rgba(15,19,88,0.80);
-      letter-spacing: 0;
-      text-align: left;
-      margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
-                                &lt;/div&gt;
-                              &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;/tr&gt;
-                          &lt;/tbody&gt;&lt;/table&gt;
-                        &lt;/div&gt;
-                      &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
-                        &lt;p style="
-      opacity: 0.8;
-      font-size: 10px;
-      color: rgba(15,19,88,0.65);
-      text-align: center;
-      display: inline-block;
-      line-height: 34px;
-      width: 100%;
-      margin: 0 auto;
-      "&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
-                      &lt;/div&gt;
-                    &lt;/div&gt;
-                  &lt;/div&gt;
-                &lt;/td&gt;
-              &lt;/tr&gt;
-            &lt;/tbody&gt;&lt;/table&gt;
-          &lt;/div&gt;
-          &lt;!--[if mso | IE]&gt;
-          &lt;/td&gt;
-          &lt;/tr&gt;
-          &lt;/table&gt;
-          &lt;![endif]--&gt;
-        &lt;/td&gt;
-      &lt;/tr&gt;
-      &lt;/tbody&gt;
-    &lt;/table&gt;&lt;br&gt;
-  &lt;/div&gt;
-  &lt;!--[if mso | IE]&gt;
-  &lt;/td&gt;
-  &lt;/tr&gt;
-  &lt;/table&gt;
-  &lt;![endif]--&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>tenantId</t>
-  </si>
-  <si>
-    <t>domainName</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>发送配置</t>
-  </si>
-  <si>
-    <t>hmsg_template_server</t>
-  </si>
-  <si>
-    <t>*temp_server_id</t>
-  </si>
-  <si>
-    <t>#tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>#tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_name:zh_CN</t>
-  </si>
-  <si>
-    <t>message_name:en_US</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-8</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-9</t>
-  </si>
-  <si>
-    <t>超时催办消息</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-10</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-11</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-12</t>
-  </si>
-  <si>
-    <t>工作流-待办</t>
-  </si>
-  <si>
     <t>发送配置(邮箱)</t>
   </si>
   <si>
@@ -2423,13 +2796,13 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-11</t>
+    <t>hmsg_template_server_line-20</t>
   </si>
   <si>
     <t>EMAIL</t>
   </si>
   <si>
-    <t>CHOERODON-EMAIL</t>
+    <t>HZERO</t>
   </si>
   <si>
     <t>发送配置(短信)</t>
@@ -2438,68 +2811,48 @@
     <t>发送配置(其它)</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-19</t>
+    <t>hmsg_template_server_line-25</t>
   </si>
   <si>
     <t>WEB</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-20</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-21</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-22</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-23</t>
+    <t>hmsg_template_server_line-26</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-27</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-29</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-30</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-31</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-32</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-33</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="60">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2535,175 +2888,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2712,14 +2896,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2728,8 +2921,264 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2760,194 +3209,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3048,262 +3311,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3312,44 +3326,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3359,70 +3361,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3491,6 +3500,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3751,292 +3768,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="17.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4046,13 +4051,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s" s="46">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s" s="47">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s" s="48">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4076,20 +4081,20 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" t="s" s="49">
         <v>63</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" t="s" s="50">
         <v>65</v>
       </c>
       <c r="Q7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="5:17">
+    <row r="8">
       <c r="E8" t="s">
         <v>67</v>
       </c>
@@ -4100,363 +4105,795 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" t="s">
         <v>71</v>
       </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
       <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N9" t="s">
         <v>73</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O9" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="5:17">
-      <c r="E9" t="s">
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
         <v>72</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N10" t="s">
         <v>73</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O10" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="5:17">
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
         <v>72</v>
       </c>
-      <c r="O10" t="s">
+      <c r="N11" t="s">
         <v>73</v>
       </c>
-      <c r="P10" t="s">
+      <c r="O11" t="s">
         <v>74</v>
       </c>
-      <c r="Q10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="5:17">
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N12" t="s">
         <v>73</v>
       </c>
-      <c r="P11" t="s">
+      <c r="O12" t="s">
         <v>74</v>
       </c>
-      <c r="Q11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="5:17">
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" t="s">
-        <v>73</v>
-      </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="5:17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
         <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
       <c r="N13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
         <v>72</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N14" t="s">
         <v>73</v>
       </c>
-      <c r="P13" t="s">
+      <c r="O14" t="s">
         <v>74</v>
       </c>
-      <c r="Q13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="5:17">
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
         <v>72</v>
       </c>
-      <c r="O14" t="s">
+      <c r="N15" t="s">
         <v>73</v>
       </c>
-      <c r="P14" t="s">
+      <c r="O15" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="5:17">
-      <c r="E15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
         <v>72</v>
       </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="N16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11">
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="E20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" t="str">
-        <f>消息模板!$E$15</f>
-        <v>hmsg_message_template-15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s" s="51">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s" s="52">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s" s="53">
+        <v>135</v>
+      </c>
+      <c r="G21" t="s" s="54">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22">
+        <f>消息模板!$E$8</f>
+      </c>
+      <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23">
+        <f>消息模板!$E$8</f>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24">
+        <f>消息模板!$E$8</f>
+      </c>
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25">
+        <f>消息模板!$E$8</f>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26">
+        <f>消息模板!$E$9</f>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27">
+        <f>消息模板!$E$9</f>
+      </c>
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28">
+        <f>消息模板!$E$12</f>
+      </c>
+      <c r="G28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29">
+        <f>消息模板!$E$12</f>
+      </c>
+      <c r="G29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30">
+        <f>消息模板!$E$12</f>
+      </c>
+      <c r="G30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31">
+        <f>消息模板!$E$12</f>
+      </c>
+      <c r="G31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32">
+        <f>消息模板!$E$16</f>
+      </c>
+      <c r="G32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33">
+        <f>消息模板!$E$16</f>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34">
+        <f>消息模板!$E$16</f>
+      </c>
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35">
+        <f>消息模板!$E$16</f>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36">
+        <f>消息模板!$E$16</f>
+      </c>
+      <c r="G36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37">
+        <f>消息模板!$E$17</f>
+      </c>
+      <c r="G37" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38">
+        <f>消息模板!$E$17</f>
+      </c>
+      <c r="G38" t="s">
+        <v>151</v>
+      </c>
+      <c r="J38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39">
+        <f>消息模板!$E$17</f>
+      </c>
+      <c r="G39" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
-  <cols>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5555555555556" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4464,250 +4901,264 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>128</v>
+        <v>152</v>
+      </c>
+      <c r="D7" t="s" s="55">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s" s="56">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s" s="57">
+        <v>155</v>
+      </c>
+      <c r="G7" t="s" s="58">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s" s="59">
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="5:11">
+    <row r="8">
       <c r="E8" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
         <v>74</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
         <v>74</v>
       </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11">
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
         <v>74</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11">
-      <c r="E11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
         <v>74</v>
       </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11">
-      <c r="E12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
         <v>74</v>
       </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12">
-      <c r="D15" s="1"/>
-      <c r="E15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" t="s">
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    <row r="19">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -4715,128 +5166,303 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>142</v>
+        <v>176</v>
+      </c>
+      <c r="D19" t="s" s="60">
+        <v>177</v>
+      </c>
+      <c r="E19" t="s" s="61">
+        <v>178</v>
+      </c>
+      <c r="F19" t="s" s="62">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s" s="63">
+        <v>180</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" t="s">
-        <v>144</v>
+        <v>181</v>
+      </c>
+      <c r="I19" t="s" s="64">
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" t="str">
+        <v>186</v>
+      </c>
+      <c r="F20">
+        <f>发送配置!$E$17</f>
+      </c>
+      <c r="G20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s" s="65">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s" s="66">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s" s="67">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s" s="68">
+        <v>180</v>
+      </c>
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" t="s" s="69">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" t="s" s="70">
+        <v>177</v>
+      </c>
+      <c r="E24" t="s" s="71">
+        <v>178</v>
+      </c>
+      <c r="F24" t="s" s="72">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s" s="73">
+        <v>180</v>
+      </c>
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25">
+        <f>发送配置!$E$13</f>
+      </c>
+      <c r="G25" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26">
+        <f>发送配置!$E$14</f>
+      </c>
+      <c r="G26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27">
+        <f>发送配置!$E$11</f>
+      </c>
+      <c r="G27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28">
+        <f>发送配置!$E$12</f>
+      </c>
+      <c r="G28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29">
+        <f>发送配置!$E$17</f>
+      </c>
+      <c r="G29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30">
         <f>发送配置!$E$10</f>
-        <v>hmsg_template_server-10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12">
-      <c r="E21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" t="str">
-        <f>发送配置!$E$11</f>
-        <v>hmsg_template_server-11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12">
-      <c r="E22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" t="str">
+      </c>
+      <c r="G30" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31">
+        <f>发送配置!$E$9</f>
+      </c>
+      <c r="G31" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32">
+        <f>发送配置!$E$15</f>
+      </c>
+      <c r="G32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <f>发送配置!$E$16</f>
+      </c>
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34">
         <f>发送配置!$E$8</f>
-        <v>hmsg_template_server-8</v>
-      </c>
-      <c r="G22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" t="s">
+      </c>
+      <c r="G34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" t="s">
         <v>68</v>
       </c>
-      <c r="L22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12">
-      <c r="E23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" t="str">
-        <f>发送配置!$E$9</f>
-        <v>hmsg_template_server-9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="5:12">
-      <c r="E24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" t="str">
-        <f>发送配置!$E$12</f>
-        <v>hmsg_template_server-12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" t="s">
-        <v>74</v>
+      <c r="L34" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>